--- a/public/templates/BEX FRAGEN.xlsx
+++ b/public/templates/BEX FRAGEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PWA\Aprod\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7DD20D-CB6B-41ED-B37A-D5F979E9FE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428379E9-054D-454B-85F6-6F7B81AF26D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20448" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="439">
   <si>
     <t>ID</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>Szűrt kérdés</t>
   </si>
   <si>
-    <t>Ad meg magad</t>
-  </si>
-  <si>
     <t>Inverter typ</t>
   </si>
   <si>
@@ -1184,9 +1181,6 @@
     <t>Zürich,Luzern,Bern</t>
   </si>
   <si>
-    <t>Gib ein</t>
-  </si>
-  <si>
     <t>I32</t>
   </si>
   <si>
@@ -1338,6 +1332,21 @@
   </si>
   <si>
     <t>G82</t>
+  </si>
+  <si>
+    <t>protocol_verification</t>
+  </si>
+  <si>
+    <t>Mekanikal</t>
+  </si>
+  <si>
+    <t>Kabinencsere</t>
+  </si>
+  <si>
+    <t>Szöveg</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1517,6 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1797,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829CC3F-6FE0-4C51-9144-6919D0578DEB}">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1857,7 @@
         <v>94</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>81</v>
@@ -1872,10 +1884,10 @@
         <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>101</v>
@@ -1908,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1929,7 +1941,7 @@
         <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>25</v>
@@ -1962,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1983,7 +1995,7 @@
         <v>91</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>25</v>
@@ -2016,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2037,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>25</v>
@@ -2070,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2124,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2145,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>25</v>
@@ -2178,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2199,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>25</v>
@@ -2232,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2253,7 +2265,7 @@
         <v>92</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>25</v>
@@ -2277,10 +2289,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -2295,7 +2307,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -2304,20 +2316,20 @@
         <v>19</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -2331,16 +2343,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2349,7 +2361,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M10" s="1">
         <v>2</v>
@@ -2358,20 +2370,20 @@
         <v>19</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -2385,16 +2397,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2403,7 +2415,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M11" s="1">
         <v>3</v>
@@ -2412,20 +2424,20 @@
         <v>19</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2439,19 +2451,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2459,7 +2471,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M12" s="1">
         <v>4</v>
@@ -2468,20 +2480,20 @@
         <v>19</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -2495,16 +2507,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2513,7 +2525,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M13" s="1">
         <v>5</v>
@@ -2522,20 +2534,20 @@
         <v>19</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -2549,16 +2561,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2567,7 +2579,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M14" s="1">
         <v>6</v>
@@ -2579,17 +2591,17 @@
         <v>55</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2603,18 +2615,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="1">
+        <v>423</v>
+      </c>
+      <c r="F15" s="15">
         <v>1.2</v>
       </c>
       <c r="G15" s="1"/>
@@ -2623,7 +2635,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M15" s="1">
         <v>7</v>
@@ -2632,20 +2644,20 @@
         <v>19</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2659,16 +2671,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2677,7 +2689,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M16" s="1">
         <v>8</v>
@@ -2686,20 +2698,20 @@
         <v>19</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2716,13 +2728,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2731,7 +2743,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M17" s="1">
         <v>9</v>
@@ -2743,13 +2755,13 @@
         <v>23</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -3245,7 +3257,7 @@
         <v>93</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>57</v>
@@ -3269,10 +3281,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
@@ -3294,10 +3306,10 @@
         <v>19</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>147</v>
@@ -3315,46 +3327,44 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="S29" s="1"/>
-      <c r="T29" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -3363,47 +3373,51 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S30" s="1"/>
-      <c r="T30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -3411,47 +3425,51 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S31" s="1"/>
-      <c r="T31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -3459,105 +3477,99 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="2">
-        <v>700</v>
-      </c>
-      <c r="K32" s="2">
-        <v>9000</v>
-      </c>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S32" s="1"/>
-      <c r="T32" s="2" t="s">
-        <v>71</v>
+      <c r="T32" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="2">
-        <v>400</v>
-      </c>
-      <c r="K33" s="2">
-        <v>9000</v>
-      </c>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S33" s="1"/>
-      <c r="T33" s="2" t="s">
-        <v>75</v>
+      <c r="T33" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -3567,16 +3579,20 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3584,15 +3600,27 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -3601,32 +3629,46 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -3635,107 +3677,221 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="A37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="T37" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="2">
+        <v>700</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="T38" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2">
+        <v>400</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="1">
+        <v>5</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="T39" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3753,13 +3909,23 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3777,6 +3943,10 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
@@ -3854,9 +4024,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3880,13 +4048,9 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>383</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3908,9 +4072,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3934,9 +4096,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3960,12 +4120,8 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3979,9 +4135,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -3990,12 +4144,8 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -4009,12 +4159,176 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
